--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T02 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T02 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC053E-65FF-4DC0-8775-D99DA8C668B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA26280C-17AD-43D5-9054-181B40EA21C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="192">
   <si>
     <t>Caso de Uso 1.2 Crear Escenario</t>
   </si>
@@ -612,6 +612,21 @@
   <si>
     <t>Formulario completo con elementos dispuestos correctamente y visibles</t>
   </si>
+  <si>
+    <t>CP1.7-01</t>
+  </si>
+  <si>
+    <t>CP1.7-02</t>
+  </si>
+  <si>
+    <t>Los elementos se encuentran correctamente ubicados y son visibles.</t>
+  </si>
+  <si>
+    <t>Se visualiza el formulario y su correspondiente botón para realizar la copia de escenarios</t>
+  </si>
+  <si>
+    <t>No se permite crear el escenario si se exceden la cantidad de caracteres.</t>
+  </si>
 </sst>
 </file>
 
@@ -750,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -798,6 +813,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2879,13 +2895,13 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
@@ -8803,10 +8819,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:M995"/>
+  <dimension ref="B1:M996"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8831,13 +8847,13 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
@@ -9022,7 +9038,7 @@
       <c r="J8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="24" t="s">
         <v>180</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -9032,7 +9048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -9042,16 +9058,123 @@
       <c r="H9" s="5"/>
       <c r="I9" s="8"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+    <row r="10" spans="2:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45737</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45738</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45737</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45738</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45737</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45738</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
@@ -9062,7 +9185,7 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12001,6 +12124,9 @@
     </row>
     <row r="995" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E995" s="1"/>
+    </row>
+    <row r="996" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E996" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12019,8 +12145,8 @@
   </sheetPr>
   <dimension ref="B1:M993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A8" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12045,13 +12171,13 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
@@ -12096,7 +12222,7 @@
     </row>
     <row r="5" spans="2:13" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>38</v>
@@ -12134,7 +12260,7 @@
     </row>
     <row r="6" spans="2:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>183</v>
@@ -12186,7 +12312,7 @@
     </row>
     <row r="8" spans="2:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>38</v>
@@ -12222,19 +12348,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+    <row r="9" spans="2:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45737</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45738</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
@@ -15192,6 +15342,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -15226,12 +15377,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -18468,10 +18619,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:N1000"/>
+  <dimension ref="B1:N1001"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18493,12 +18644,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -18724,15 +18875,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" s="25" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E9" s="6">
         <v>45602</v>
@@ -18747,26 +18898,64 @@
         <v>87</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L10" s="1"/>
+    <row r="10" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45602</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45603</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L11" s="1"/>
@@ -18798,7 +18987,7 @@
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21737,6 +21926,9 @@
     </row>
     <row r="1000" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L1000" s="1"/>
+    </row>
+    <row r="1001" spans="12:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1001" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T02 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T02 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA26280C-17AD-43D5-9054-181B40EA21C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A3519-A80F-49B0-8378-8DA6942FD457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="7" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <t>Testify</t>
   </si>
   <si>
-    <t>Iteración N° 1, Fase Contruccón 2</t>
-  </si>
-  <si>
     <t>OSLO</t>
   </si>
   <si>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>No se permite crear el escenario si se exceden la cantidad de caracteres.</t>
+  </si>
+  <si>
+    <t>Fase Transición</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA2F3E-CDFF-4C79-AD35-CED339D9040D}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1461,7 @@
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="17" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1473,7 +1473,7 @@
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="6" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -3023,7 +3023,7 @@
         <v>30</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>23</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="7" spans="1:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>32</v>
@@ -3058,13 +3058,13 @@
         <v>37</v>
       </c>
       <c r="J7" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>23</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="8" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>38</v>
@@ -3105,15 +3105,15 @@
         <v>44</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>45</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="11" spans="1:13" s="21" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -3184,7 +3184,7 @@
         <v>45737</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>40</v>
@@ -3202,7 +3202,7 @@
         <v>44</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>23</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="7" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>63</v>
@@ -6449,7 +6449,7 @@
         <v>45737</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>56</v>
@@ -6464,10 +6464,10 @@
         <v>20</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>23</v>
@@ -6490,7 +6490,7 @@
         <v>45737</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>68</v>
@@ -6505,10 +6505,10 @@
         <v>70</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>23</v>
@@ -7509,7 +7509,7 @@
   <dimension ref="B1:N1000"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7592,10 +7592,10 @@
         <v>73</v>
       </c>
       <c r="E4" s="7">
-        <v>45603</v>
+        <v>45736</v>
       </c>
       <c r="F4" s="7">
-        <v>45603</v>
+        <v>45737</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>55</v>
@@ -7633,10 +7633,10 @@
         <v>77</v>
       </c>
       <c r="E5" s="7">
-        <v>45603</v>
+        <v>45736</v>
       </c>
       <c r="F5" s="7">
-        <v>45603</v>
+        <v>45737</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>55</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="7" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>76</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="8" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>76</v>
@@ -7756,10 +7756,10 @@
         <v>77</v>
       </c>
       <c r="E8" s="7">
-        <v>45603</v>
+        <v>45736</v>
       </c>
       <c r="F8" s="7">
-        <v>45603</v>
+        <v>45737</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>55</v>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="9" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>76</v>
@@ -7797,10 +7797,10 @@
         <v>77</v>
       </c>
       <c r="E9" s="7">
-        <v>45603</v>
+        <v>45736</v>
       </c>
       <c r="F9" s="7">
-        <v>45603</v>
+        <v>45737</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>55</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D2" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -8898,13 +8898,13 @@
     </row>
     <row r="5" spans="2:13" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="E5" s="6">
         <v>45737</v>
@@ -8916,19 +8916,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>61</v>
@@ -8936,13 +8936,13 @@
     </row>
     <row r="6" spans="2:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="6">
         <v>45737</v>
@@ -8954,19 +8954,19 @@
         <v>34</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="K6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>61</v>
@@ -8974,13 +8974,13 @@
     </row>
     <row r="7" spans="2:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="6">
         <v>45737</v>
@@ -8992,19 +8992,19 @@
         <v>34</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="K7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>61</v>
@@ -9012,13 +9012,13 @@
     </row>
     <row r="8" spans="2:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="6">
         <v>45737</v>
@@ -9030,19 +9030,19 @@
         <v>34</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>23</v>
@@ -9062,15 +9062,15 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="2:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="165" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="E10" s="6">
         <v>45737</v>
@@ -9082,33 +9082,33 @@
         <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="K10" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="L10" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="165" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="6">
         <v>45737</v>
@@ -9120,19 +9120,19 @@
         <v>34</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="K11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>23</v>
@@ -9140,13 +9140,13 @@
     </row>
     <row r="12" spans="2:13" ht="165" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="6">
         <v>45737</v>
@@ -9158,19 +9158,19 @@
         <v>34</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="K12" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>23</v>
@@ -12145,7 +12145,7 @@
   </sheetPr>
   <dimension ref="B1:M993"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -12172,7 +12172,7 @@
     </row>
     <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D2" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -12222,13 +12222,13 @@
     </row>
     <row r="5" spans="2:13" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="6">
         <v>45736</v>
@@ -12240,19 +12240,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>61</v>
@@ -12260,13 +12260,13 @@
     </row>
     <row r="6" spans="2:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E6" s="6">
         <v>45737</v>
@@ -12278,19 +12278,19 @@
         <v>34</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>186</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>61</v>
@@ -12312,7 +12312,7 @@
     </row>
     <row r="8" spans="2:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>38</v>
@@ -12327,7 +12327,7 @@
         <v>45737</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>40</v>
@@ -12342,7 +12342,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>23</v>
@@ -12350,13 +12350,13 @@
     </row>
     <row r="9" spans="2:13" ht="165" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E9" s="6">
         <v>45737</v>
@@ -12368,19 +12368,19 @@
         <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>186</v>
-      </c>
       <c r="L9" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>23</v>
@@ -15452,7 +15452,7 @@
         <v>87</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>88</v>
@@ -15493,7 +15493,7 @@
         <v>87</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>88</v>
@@ -15587,7 +15587,7 @@
         <v>103</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>91</v>
@@ -15628,7 +15628,7 @@
         <v>107</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>91</v>
@@ -18621,8 +18621,8 @@
   </sheetPr>
   <dimension ref="B1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18707,10 +18707,10 @@
         <v>111</v>
       </c>
       <c r="E4" s="6">
-        <v>45602</v>
+        <v>45737</v>
       </c>
       <c r="F4" s="6">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>34</v>
@@ -18731,7 +18731,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>31</v>
@@ -18748,10 +18748,10 @@
         <v>118</v>
       </c>
       <c r="E5" s="6">
-        <v>45602</v>
+        <v>45737</v>
       </c>
       <c r="F5" s="6">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>34</v>
@@ -18772,7 +18772,7 @@
         <v>115</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>31</v>
@@ -18786,13 +18786,13 @@
         <v>120</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="6">
-        <v>45602</v>
+        <v>45737</v>
       </c>
       <c r="F6" s="6">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>34</v>
@@ -18813,7 +18813,7 @@
         <v>124</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>31</v>
@@ -18845,13 +18845,13 @@
         <v>111</v>
       </c>
       <c r="E8" s="6">
-        <v>45602</v>
+        <v>45737</v>
       </c>
       <c r="F8" s="6">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>87</v>
@@ -18886,10 +18886,10 @@
         <v>118</v>
       </c>
       <c r="E9" s="6">
-        <v>45602</v>
+        <v>45737</v>
       </c>
       <c r="F9" s="6">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>34</v>
@@ -18910,7 +18910,7 @@
         <v>115</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>91</v>
@@ -18924,13 +18924,13 @@
         <v>120</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="6">
-        <v>45602</v>
+        <v>45737</v>
       </c>
       <c r="F10" s="6">
-        <v>45603</v>
+        <v>45738</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>34</v>
